--- a/data/trans_dic/P1432-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1432-Edad-trans_dic.xlsx
@@ -699,12 +699,12 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.009942704217784034</v>
+        <v>0.01035781529006351</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.005488709524406554</v>
+        <v>0.005310011514263831</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
@@ -779,17 +779,17 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.006830680974809193</v>
+        <v>0.007676066795552806</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.009629356346063362</v>
+        <v>0.008809785716281252</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.005838165850677189</v>
+        <v>0.005779984826404315</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="inlineStr"/>
@@ -854,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.001329304225732944</v>
+        <v>0.001323304903935022</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0007730053477635086</v>
+        <v>0.0007677320459990048</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0007346797388784997</v>
+        <v>0.000737746195890522</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0006602855440423711</v>
+        <v>0.0006580202078759044</v>
       </c>
     </row>
     <row r="12">
@@ -874,29 +874,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.009784086294073482</v>
+        <v>0.009892682861650287</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.009172363379558011</v>
+        <v>0.01057181619406077</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.009741385374718668</v>
+        <v>0.01014987847417153</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01058817815029958</v>
+        <v>0.00959325452673577</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01161706625387693</v>
+        <v>0.0126305211318996</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.007018842953051945</v>
+        <v>0.007549248004013054</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.007062418224264853</v>
+        <v>0.006543843290462301</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.005724244736381331</v>
+        <v>0.005570264300148581</v>
       </c>
     </row>
     <row r="13">
@@ -955,22 +955,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002218251814296773</v>
+        <v>0.002209827393104727</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001577688427193204</v>
+        <v>0.001580228080691767</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00159437453470107</v>
+        <v>0.001577048262136388</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001987560832619241</v>
+        <v>0.002683869000938733</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.001625640149062546</v>
+        <v>0.001635239022192364</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001531030896814747</v>
+        <v>0.001522074695256504</v>
       </c>
     </row>
     <row r="15">
@@ -981,31 +981,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01215508033900764</v>
+        <v>0.01152954174785016</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01078715804863836</v>
+        <v>0.009907362778646185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007352993466832583</v>
+        <v>0.009637302194220179</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02024696036546783</v>
+        <v>0.01975262972820354</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01356391938590232</v>
+        <v>0.01599447651175246</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01431547415555039</v>
+        <v>0.01429963083107123</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01193904821955828</v>
+        <v>0.01282661467895799</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.009003292032634221</v>
+        <v>0.00946805289127761</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.008647106186684839</v>
+        <v>0.008700148773897833</v>
       </c>
     </row>
     <row r="16">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00442875112270467</v>
+        <v>0.004245540157051314</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01037995147229885</v>
+        <v>0.01083774951630715</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01143585741145162</v>
+        <v>0.01157195578461246</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007287543239494642</v>
+        <v>0.008767937050075818</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0105330453690842</v>
+        <v>0.009424070155029274</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008153269776347684</v>
+        <v>0.007877601232963221</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004649536097107885</v>
+        <v>0.005641272718320718</v>
       </c>
     </row>
     <row r="18">
@@ -1090,31 +1090,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02578387288777255</v>
+        <v>0.02582172169724068</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01493375594644353</v>
+        <v>0.01696348103890688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0120614545775912</v>
+        <v>0.01189424752187483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04205866724171469</v>
+        <v>0.04298372280484704</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0407154521437138</v>
+        <v>0.04039470719098926</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03364929342745136</v>
+        <v>0.03395620528651826</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02954259605946232</v>
+        <v>0.02826096483355631</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02540156034302502</v>
+        <v>0.0238287010132211</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01974836084356137</v>
+        <v>0.01962421249207892</v>
       </c>
     </row>
     <row r="19">
@@ -1164,31 +1164,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02162216838240099</v>
+        <v>0.01859787883554924</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0175493833752015</v>
+        <v>0.01740834877841468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0028075097335108</v>
+        <v>0.002819437101669907</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01808069968471344</v>
+        <v>0.01697914493290421</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01153341972451632</v>
+        <v>0.01157518630566984</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01247515906369602</v>
+        <v>0.01050842128938196</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0222630034499913</v>
+        <v>0.02365672984210884</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01963475885132984</v>
+        <v>0.01915884243466347</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.008453622489779929</v>
+        <v>0.009503672579493128</v>
       </c>
     </row>
     <row r="21">
@@ -1199,31 +1199,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06788046258397236</v>
+        <v>0.06268625535799531</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07207334984575373</v>
+        <v>0.0670462010905935</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02310261507538399</v>
+        <v>0.02598227476892066</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05752996001905158</v>
+        <v>0.0572673140349873</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05329986133407834</v>
+        <v>0.05053430343228887</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04442934113276451</v>
+        <v>0.04209848050520729</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05234117190654769</v>
+        <v>0.05527027961231559</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05200770388844559</v>
+        <v>0.05178720004393867</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02891966570613465</v>
+        <v>0.02850469676136732</v>
       </c>
     </row>
     <row r="22">
@@ -1273,31 +1273,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04503992087530354</v>
+        <v>0.04369226713369886</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007680905818847411</v>
+        <v>0.007275607744462191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0261823471473284</v>
+        <v>0.02643526849263101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04049467038852159</v>
+        <v>0.04101965256545556</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05712202389121652</v>
+        <v>0.05866040911671967</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04273541724170386</v>
+        <v>0.0435821768927398</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04657887247032314</v>
+        <v>0.04925584521818584</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04271893512952222</v>
+        <v>0.04249898186634506</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04243718360249533</v>
+        <v>0.04253357546249839</v>
       </c>
     </row>
     <row r="24">
@@ -1308,31 +1308,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1144918250293997</v>
+        <v>0.1186771981847719</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04434862781858773</v>
+        <v>0.04384571597092391</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07987315138783871</v>
+        <v>0.0779466952008302</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09909344497656622</v>
+        <v>0.104474730337388</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1173847574632725</v>
+        <v>0.1186659193828521</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09773427238338296</v>
+        <v>0.1021844980228631</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09352042579684734</v>
+        <v>0.09497630093606077</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08186690099790273</v>
+        <v>0.08094409743072928</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08254485656291664</v>
+        <v>0.08309436765244746</v>
       </c>
     </row>
     <row r="25">
@@ -1382,31 +1382,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004171528639609179</v>
+        <v>0.003963433618179132</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003313949028394946</v>
+        <v>0.003090804098487121</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01256436411250381</v>
+        <v>0.01255686203642089</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01050554548161705</v>
+        <v>0.01085280345606824</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.008862921858948937</v>
+        <v>0.009107068813574579</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.007751999497048452</v>
+        <v>0.007668092941202856</v>
       </c>
     </row>
     <row r="27">
@@ -1417,31 +1417,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01045004622711928</v>
+        <v>0.01021529970257599</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.008152979362129073</v>
+        <v>0.008108381856723079</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02110338031769656</v>
+        <v>0.02211740285126669</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01927348825151559</v>
+        <v>0.01958768386774908</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01447867572649579</v>
+        <v>0.01448518908091208</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0127750601052864</v>
+        <v>0.01244811168646032</v>
       </c>
     </row>
     <row r="28">
@@ -1697,12 +1697,12 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4648</v>
+        <v>4842</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5278</v>
+        <v>5106</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr"/>
@@ -1812,17 +1812,17 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5024</v>
+        <v>5646</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6023</v>
+        <v>5510</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>7946</v>
+        <v>7866</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="inlineStr"/>
@@ -1922,16 +1922,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I14" s="6" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J14" s="6" t="n">
         <v>1027</v>
       </c>
-      <c r="J14" s="6" t="n">
-        <v>1022</v>
-      </c>
       <c r="K14" s="6" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15">
@@ -1942,29 +1942,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6249</v>
+        <v>6318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6254</v>
+        <v>7209</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>6719</v>
+        <v>7001</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7513</v>
+        <v>6807</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7683</v>
+        <v>8354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9324</v>
+        <v>10029</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9827</v>
+        <v>9105</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7616</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="16">
@@ -2058,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2057</v>
+        <v>2777</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1983</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="19">
@@ -2084,31 +2084,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6310</v>
+        <v>5986</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6630</v>
+        <v>6089</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4750</v>
+        <v>6226</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10440</v>
+        <v>10185</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8332</v>
+        <v>9825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9292</v>
+        <v>9282</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12354</v>
+        <v>13273</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11064</v>
+        <v>11635</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11199</v>
+        <v>11268</v>
       </c>
     </row>
     <row r="20">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1713</v>
+        <v>1642</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4193</v>
+        <v>4378</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5121</v>
+        <v>5182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3621</v>
+        <v>4356</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8328</v>
+        <v>7452</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7152</v>
+        <v>6910</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4532</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="23">
@@ -2228,31 +2228,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9971</v>
+        <v>9986</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6413</v>
+        <v>7285</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5764</v>
+        <v>5684</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16991</v>
+        <v>17365</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18232</v>
+        <v>18089</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>16719</v>
+        <v>16871</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23359</v>
+        <v>22346</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>22283</v>
+        <v>20903</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>19250</v>
+        <v>19129</v>
       </c>
     </row>
     <row r="24">
@@ -2337,31 +2337,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6326</v>
+        <v>5441</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5437</v>
+        <v>5393</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6200</v>
+        <v>5823</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4083</v>
+        <v>4098</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4713</v>
+        <v>3970</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14149</v>
+        <v>15034</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13033</v>
+        <v>12717</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6020</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="27">
@@ -2372,31 +2372,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19861</v>
+        <v>18341</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22327</v>
+        <v>20770</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7724</v>
+        <v>8687</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19729</v>
+        <v>19639</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18868</v>
+        <v>17889</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>16784</v>
+        <v>15903</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33264</v>
+        <v>35125</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>34522</v>
+        <v>34375</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>20593</v>
+        <v>20298</v>
       </c>
     </row>
     <row r="28">
@@ -2481,31 +2481,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9453</v>
+        <v>9170</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1919</v>
+        <v>1818</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6729</v>
+        <v>6794</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13521</v>
+        <v>13697</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22156</v>
+        <v>22753</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>17101</v>
+        <v>17440</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>25329</v>
+        <v>26785</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>27243</v>
+        <v>27102</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>27888</v>
+        <v>27952</v>
       </c>
     </row>
     <row r="31">
@@ -2516,31 +2516,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>24030</v>
+        <v>24908</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11081</v>
+        <v>10955</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>20527</v>
+        <v>20032</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>33088</v>
+        <v>34885</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>45530</v>
+        <v>46027</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>39110</v>
+        <v>40891</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>50856</v>
+        <v>51647</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>52208</v>
+        <v>51620</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>54246</v>
+        <v>54607</v>
       </c>
     </row>
     <row r="32">
@@ -2625,31 +2625,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14295</v>
+        <v>13582</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>11249</v>
+        <v>10491</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>44654</v>
+        <v>44627</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>37237</v>
+        <v>38468</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>61870</v>
+        <v>63574</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>53790</v>
+        <v>53208</v>
       </c>
     </row>
     <row r="35">
@@ -2660,31 +2660,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>35810</v>
+        <v>35006</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>27674</v>
+        <v>27523</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>75001</v>
+        <v>78605</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>68316</v>
+        <v>69429</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>101072</v>
+        <v>101118</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>88645</v>
+        <v>86376</v>
       </c>
     </row>
     <row r="36">
